--- a/biology/Botanique/Moniliose/Moniliose.xlsx
+++ b/biology/Botanique/Moniliose/Moniliose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La moniliose est le nom générique de diverses maladies fongiques des arbres fruitiers provoquées par différentes espèces de champignons du genre Monilinia, dont Monilinia fructigena qui s'attaque principalement aux fruits à pépins et Monilinia laxa aux fruits à noyau.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La moniliose touche les fruits blessés (par la grêle, les piqûres de guêpes, les coups de bec des oiseaux ou les morsures d'insectes divers). Un climat humide au moment de la floraison favorise l'apparition de la moniliose. Les fruits se recouvrent alors d'une tache marron et de points blancs répartis en cercles concentriques ordonnés.
 Les fruits pourrissent sur l'arbre et restent souvent momifiés sans tomber.
@@ -546,7 +560,9 @@
           <t>Principales formes de moniliose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>moniliose de l'aubépine (Monilinia johnsonii),
 moniliose des arbres fruitiers (Monilinia laxa),
@@ -582,7 +598,9 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour éviter la transmission de l'agent pathogène, il convient de brûler les fruits et les branches infectés loin de l'arbre. Il faut également se laver les mains après avoir touché des fruits infectés.
 Le champignon hivernant dans les plaies des arbres ou dans les aspérités de l'écorce, un traitement à l'eau de chaux ou à la bouillie bordelaise peut être salutaire.
@@ -614,7 +632,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Photos et infos complémentaires
  Portail de l’agriculture et l’agronomie   Portail de la mycologie   Portail de la protection des cultures                   </t>
